--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -810,7 +810,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
